--- a/scenarios_and_results/analisi_meteo_anno.xlsx
+++ b/scenarios_and_results/analisi_meteo_anno.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigimoccia2022/Library/CloudStorage/Dropbox/pypsa/github/single_district/scenarios_and_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685885A5-28C2-7B48-8E30-30F6AE902C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7B2D25-0EB0-374C-917D-96ADE79E815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="2020" windowWidth="19800" windowHeight="17440" xr2:uid="{A19E7391-6EFA-6544-ADF1-3E75B17B551E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Scenarios low discount rate, bio, Sibari, differences between meteo years</t>
   </si>
@@ -68,10 +68,19 @@
     <t>CF wind</t>
   </si>
   <si>
-    <t>210/avg</t>
-  </si>
-  <si>
     <t>CF solar utility</t>
+  </si>
+  <si>
+    <t>2010/avg</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max/min</t>
   </si>
 </sst>
 </file>
@@ -79,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -113,7 +122,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78C109C-5CFF-A247-BB3B-552211ADCB74}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G24"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,7 +508,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -993,7 +1002,7 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1">
         <f>B24/B26</f>
@@ -1018,6 +1027,93 @@
       <c r="G27" s="1">
         <f>G24/G26</f>
         <v>0.98382450697983592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <f>MAX(B5:B24)</f>
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:G28" si="2">MAX(C5:C24)</f>
+        <v>69.7</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>43.6</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>34.9</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <f>MIN(B5:B24)</f>
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:G29" si="3">MIN(C5:C24)</f>
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>25.7</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>1.9</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>29.9</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1">
+        <f>B28/B29</f>
+        <v>1.1176470588235294</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ref="C30:G30" si="4">C28/C29</f>
+        <v>1.2907407407407407</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6964980544747084</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1672240802675586</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1132075471698115</v>
       </c>
     </row>
   </sheetData>
